--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.007061516040303045</v>
+        <v>0.007064987288959285</v>
       </c>
       <c r="E2">
-        <v>0.007061516040303045</v>
+        <v>0.007064987288959285</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3.554070998055113E-07</v>
+        <v>3.550725809296352E-07</v>
       </c>
       <c r="E3">
-        <v>3.554070998055113E-07</v>
+        <v>3.550725809296352E-07</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.87313843769863E-10</v>
+        <v>1.884699157459474E-10</v>
       </c>
       <c r="E4">
-        <v>1.87313843769863E-10</v>
+        <v>1.884699157459474E-10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.01080867371581911</v>
+        <v>0.01079066539298056</v>
       </c>
       <c r="E5">
-        <v>0.01080867371581911</v>
+        <v>0.01079066539298056</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.86972502514456</v>
+        <v>0.8689145827006219</v>
       </c>
       <c r="E6">
-        <v>0.86972502514456</v>
+        <v>0.8689145827006219</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9955979169002092</v>
+        <v>0.9989297622280975</v>
       </c>
       <c r="E7">
-        <v>0.004402083099790843</v>
+        <v>0.001070237771902516</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9956022142445616</v>
+        <v>0.0001725185849984225</v>
       </c>
       <c r="E8">
-        <v>0.004397785755438366</v>
+        <v>0.9998274814150016</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.994622470863696</v>
+        <v>0.0001416071617547044</v>
       </c>
       <c r="E9">
-        <v>0.00537752913630396</v>
+        <v>0.9998583928382453</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9957151522653316</v>
+        <v>0.01716371028495326</v>
       </c>
       <c r="E10">
-        <v>0.004284847734668418</v>
+        <v>0.9828362897150468</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.995822427313486</v>
+        <v>6.313642712226358E-06</v>
       </c>
       <c r="E11">
-        <v>0.004177572686513975</v>
+        <v>0.9999936863572878</v>
       </c>
       <c r="F11">
-        <v>0.2078754454851151</v>
+        <v>3.561613082885742</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.0002026115005393634</v>
+        <v>0.0002018871026234869</v>
       </c>
       <c r="E12">
-        <v>0.0002026115005393634</v>
+        <v>0.0002018871026234869</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.655746251661526E-11</v>
+        <v>1.655497249263877E-11</v>
       </c>
       <c r="E13">
-        <v>1.655746251661526E-11</v>
+        <v>1.655497249263877E-11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3.305895871059597E-16</v>
+        <v>3.318938310843055E-16</v>
       </c>
       <c r="E14">
-        <v>3.305895871059597E-16</v>
+        <v>3.318938310843055E-16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>7.449608465142644E-05</v>
+        <v>7.440602584897592E-05</v>
       </c>
       <c r="E15">
-        <v>7.449608465142644E-05</v>
+        <v>7.440602584897592E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9081946042908914</v>
+        <v>0.908369655802864</v>
       </c>
       <c r="E16">
-        <v>0.9081946042908914</v>
+        <v>0.908369655802864</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9990460270443244</v>
+        <v>0.9999864142652971</v>
       </c>
       <c r="E17">
-        <v>0.0009539729556755638</v>
+        <v>1.358573470289226E-05</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9990156247389781</v>
+        <v>2.339118916565548E-07</v>
       </c>
       <c r="E18">
-        <v>0.0009843752610219081</v>
+        <v>0.9999997660881084</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9986489187701907</v>
+        <v>2.469244484908635E-07</v>
       </c>
       <c r="E19">
-        <v>0.001351081229809314</v>
+        <v>0.9999997530755516</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9990576787564965</v>
+        <v>0.000297710976382215</v>
       </c>
       <c r="E20">
-        <v>0.0009423212435034634</v>
+        <v>0.9997022890236178</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9990948643248158</v>
+        <v>4.614538534118149E-09</v>
       </c>
       <c r="E21">
-        <v>0.0009051356751842432</v>
+        <v>0.9999999953854615</v>
       </c>
       <c r="F21">
-        <v>0.2393501996994019</v>
+        <v>6.018622875213623</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
